--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.945</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.778</v>
+        <v>-21.683</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-19.937</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -746,12 +746,12 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.378</v>
+        <v>-7.976999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-19.94</v>
+        <v>-20.203</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -774,12 +774,12 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.49</v>
+        <v>-7.327000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.632</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.51</v>
+        <v>-21.662</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -830,12 +830,12 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.213999999999999</v>
+        <v>-8.166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.344</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.086</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.281999999999999</v>
+        <v>-7.619</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.608</v>
+        <v>-7.540999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.17</v>
+        <v>-8.320000000000002</v>
       </c>
     </row>
     <row r="50">
@@ -1166,12 +1166,12 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.907999999999999</v>
+        <v>-7.905000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.32</v>
+        <v>-22.068</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1180,7 +1180,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.416</v>
+        <v>-8.068999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.251999999999999</v>
+        <v>-8.183</v>
       </c>
     </row>
     <row r="55">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.19</v>
+        <v>-22.219</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.154</v>
+        <v>-22.461</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.606</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.843999999999999</v>
+        <v>-6.853</v>
       </c>
     </row>
     <row r="71">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.632</v>
+        <v>-20.778</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.938</v>
+        <v>-22.024</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.302</v>
+        <v>-8.252000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.516000000000002</v>
+        <v>-8.228</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.978</v>
+        <v>-8.177000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.666</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.456</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.774000000000001</v>
+        <v>-8.183000000000002</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.124</v>
+        <v>-22.086</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
